--- a/Read_Spectra_Gaussian/Data.xlsx
+++ b/Read_Spectra_Gaussian/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jsaguiarc_eafit_edu_co/Documents/Archivos de la U/9) 2024 - 2/EAFIT/AVANZADO II/0) Reports/3) Final Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\ORCA_and_Gaussian\Read_Spectra_Gaussian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104880995956425BDE5903" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61629C3D-4329-440A-A11C-EAF458B587A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991445C-3F85-4285-A5E0-87CFF4219313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Wavenumber (cm^-1)</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Intensity (a.u.)</t>
+  </si>
+  <si>
+    <t>Dimmer-Pz</t>
+  </si>
+  <si>
+    <t>Dimmer-Py</t>
   </si>
 </sst>
 </file>
@@ -45638,7 +45644,7 @@
   <dimension ref="A1:J1267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45663,10 +45669,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>

--- a/Read_Spectra_Gaussian/Data.xlsx
+++ b/Read_Spectra_Gaussian/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\ORCA_and_Gaussian\Read_Spectra_Gaussian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991445C-3F85-4285-A5E0-87CFF4219313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8764DA-4F2C-497F-8B53-7B14D0240C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTIR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Wavenumber (cm^-1)</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Cubane-Perchlorate</t>
-  </si>
-  <si>
-    <t>Dimer-Pz</t>
-  </si>
-  <si>
-    <t>Dimer-Py</t>
   </si>
   <si>
     <t>Monomer</t>
@@ -379,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1740"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,13 +399,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -45643,8 +45637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449459BA-1EE1-4BF0-95DE-BF2EBD297D0D}">
   <dimension ref="A1:J1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45669,45 +45663,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
